--- a/lib/pkmeta.xlsx
+++ b/lib/pkmeta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feng.yang\Documents\handbook\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA5EA75-D6EB-4A1A-B6B9-9B8A426F84A6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BF54EC-8DAE-4184-BB34-EC46C1B7422A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nmdat" sheetId="8" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="241">
   <si>
     <t>STUDYID</t>
   </si>
@@ -514,19 +514,10 @@
     <t>type</t>
   </si>
   <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>""</t>
-  </si>
-  <si>
     <t>Actual Arm (N) </t>
   </si>
   <si>
     <t>Test (N)</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>Baseline BSA (m^2)</t>
@@ -1784,7 +1775,7 @@
         <v>108</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -1799,13 +1790,13 @@
         <v>106</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
@@ -1826,7 +1817,7 @@
         <v>112</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="13"/>
@@ -1847,7 +1838,7 @@
         <v>113</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="13"/>
@@ -1865,10 +1856,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="13"/>
@@ -1889,7 +1880,7 @@
         <v>114</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="13"/>
@@ -1910,7 +1901,7 @@
         <v>116</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="13"/>
@@ -1925,13 +1916,13 @@
         <v>106</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>176</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="13"/>
@@ -1952,7 +1943,7 @@
         <v>118</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="13"/>
@@ -1973,7 +1964,7 @@
         <v>120</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="13"/>
@@ -1991,10 +1982,10 @@
         <v>17</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="13"/>
@@ -2015,7 +2006,7 @@
         <v>122</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="13"/>
@@ -2033,15 +2024,15 @@
         <v>21</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I14" s="13"/>
     </row>
@@ -2059,7 +2050,7 @@
         <v>156</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="13"/>
@@ -2079,7 +2070,7 @@
         <v>155</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="13"/>
@@ -2100,7 +2091,7 @@
         <v>123</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="13"/>
@@ -2121,7 +2112,7 @@
         <v>124</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="13"/>
@@ -2142,7 +2133,7 @@
         <v>126</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="13"/>
@@ -2163,7 +2154,7 @@
         <v>128</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="13"/>
@@ -2184,7 +2175,7 @@
         <v>147</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
@@ -2205,7 +2196,7 @@
         <v>110</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
@@ -2226,7 +2217,7 @@
         <v>87</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
@@ -2247,7 +2238,7 @@
         <v>129</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
@@ -2265,10 +2256,10 @@
         <v>4</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
@@ -2289,7 +2280,7 @@
         <v>8</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
@@ -2304,13 +2295,13 @@
         <v>106</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="13"/>
@@ -2328,10 +2319,10 @@
         <v>130</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
@@ -2352,7 +2343,7 @@
         <v>115</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="13"/>
@@ -2373,7 +2364,7 @@
         <v>103</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
@@ -2388,13 +2379,13 @@
         <v>106</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="E31" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F31" s="6"/>
     </row>
@@ -2406,13 +2397,13 @@
         <v>106</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F32" s="6"/>
     </row>
@@ -2430,7 +2421,7 @@
         <v>133</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
@@ -2451,7 +2442,7 @@
         <v>135</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
@@ -2472,7 +2463,7 @@
         <v>136</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
@@ -2490,10 +2481,10 @@
         <v>14</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
@@ -2514,7 +2505,7 @@
         <v>137</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
@@ -2535,7 +2526,7 @@
         <v>138</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
@@ -2556,7 +2547,7 @@
         <v>16</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
@@ -2577,7 +2568,7 @@
         <v>132</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
@@ -2598,7 +2589,7 @@
         <v>139</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
@@ -2619,7 +2610,7 @@
         <v>140</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
@@ -2637,10 +2628,10 @@
         <v>59</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
@@ -2661,7 +2652,7 @@
         <v>141</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
@@ -2682,7 +2673,7 @@
         <v>143</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
@@ -2703,7 +2694,7 @@
         <v>35</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
@@ -2724,7 +2715,7 @@
         <v>144</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
@@ -2745,7 +2736,7 @@
         <v>41</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
@@ -2766,7 +2757,7 @@
         <v>145</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
@@ -2787,7 +2778,7 @@
         <v>38</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
@@ -2808,7 +2799,7 @@
         <v>146</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
@@ -2829,7 +2820,7 @@
         <v>148</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
@@ -2850,7 +2841,7 @@
         <v>149</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
@@ -2871,7 +2862,7 @@
         <v>154</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
@@ -2892,7 +2883,7 @@
         <v>51</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
@@ -2910,10 +2901,10 @@
         <v>33</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
@@ -2934,7 +2925,7 @@
         <v>151</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
@@ -2955,7 +2946,7 @@
         <v>153</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
@@ -3066,7 +3057,7 @@
         <v>87</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F2" s="13"/>
     </row>
@@ -3081,10 +3072,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F3" s="13"/>
     </row>
@@ -3102,7 +3093,7 @@
         <v>147</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F4" s="13"/>
     </row>
@@ -3120,7 +3111,7 @@
         <v>141</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F5" s="13"/>
     </row>
@@ -3135,10 +3126,10 @@
         <v>142</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F6" s="13"/>
     </row>
@@ -3156,7 +3147,7 @@
         <v>35</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F7" s="13"/>
     </row>
@@ -3174,7 +3165,7 @@
         <v>144</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F8" s="13"/>
     </row>
@@ -3192,7 +3183,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F9" s="13"/>
     </row>
@@ -3210,7 +3201,7 @@
         <v>145</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F10" s="13"/>
     </row>
@@ -3228,7 +3219,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F11" s="13"/>
     </row>
@@ -3246,7 +3237,7 @@
         <v>146</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F12" s="13"/>
     </row>
@@ -3261,10 +3252,10 @@
         <v>56</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F13" s="13"/>
     </row>
@@ -3282,7 +3273,7 @@
         <v>149</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F14" s="13"/>
     </row>
@@ -3297,10 +3288,10 @@
         <v>33</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F15" s="13"/>
     </row>
@@ -3318,7 +3309,7 @@
         <v>154</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F16" s="13"/>
     </row>
@@ -3336,7 +3327,7 @@
         <v>51</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F17" s="13"/>
     </row>
@@ -3351,10 +3342,10 @@
         <v>150</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F18" s="13"/>
     </row>
@@ -3372,7 +3363,7 @@
         <v>153</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F19" s="13"/>
     </row>
@@ -3384,13 +3375,13 @@
         <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3401,13 +3392,13 @@
         <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3418,13 +3409,13 @@
         <v>106</v>
       </c>
       <c r="C22" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3435,13 +3426,13 @@
         <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3452,13 +3443,13 @@
         <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3469,13 +3460,13 @@
         <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3488,8 +3479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -3520,9 +3511,6 @@
       <c r="E1" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16">
@@ -3538,10 +3526,7 @@
         <v>87</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3558,10 +3543,7 @@
         <v>129</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3578,10 +3560,7 @@
         <v>139</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3598,10 +3577,7 @@
         <v>140</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3618,11 +3594,9 @@
         <v>137</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>166</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
@@ -3638,10 +3612,7 @@
         <v>138</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3658,10 +3629,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3675,13 +3643,10 @@
         <v>17</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3695,13 +3660,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3715,14 +3677,12 @@
         <v>5</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>166</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16">
@@ -3738,10 +3698,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3752,17 +3709,15 @@
         <v>106</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>166</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16">
@@ -3778,10 +3733,7 @@
         <v>131</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3798,11 +3750,9 @@
         <v>114</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>166</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="F15" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3858,7 +3808,7 @@
         <v>87</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3875,7 +3825,7 @@
         <v>129</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3889,10 +3839,10 @@
         <v>28</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3909,7 +3859,7 @@
         <v>155</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -3927,7 +3877,7 @@
         <v>135</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3941,10 +3891,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3958,10 +3908,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F8" s="4"/>
     </row>
@@ -3979,7 +3929,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3990,13 +3940,13 @@
         <v>106</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F10" s="4"/>
     </row>
@@ -4011,10 +3961,10 @@
         <v>130</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4031,7 +3981,7 @@
         <v>114</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F12" s="4"/>
     </row>
@@ -4049,7 +3999,7 @@
         <v>116</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F13" s="4"/>
     </row>
@@ -4064,10 +4014,10 @@
         <v>20</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4081,10 +4031,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F15" s="6"/>
     </row>
@@ -4096,13 +4046,13 @@
         <v>106</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F16" s="6"/>
     </row>
@@ -4114,13 +4064,13 @@
         <v>106</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F17" s="6"/>
     </row>
@@ -4135,10 +4085,10 @@
         <v>26</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F18" s="4"/>
     </row>
@@ -4156,7 +4106,7 @@
         <v>124</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F19" s="4"/>
     </row>
@@ -4174,7 +4124,7 @@
         <v>133</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4231,7 +4181,7 @@
         <v>112</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -4249,7 +4199,7 @@
         <v>87</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F3" s="13"/>
     </row>
@@ -4267,7 +4217,7 @@
         <v>129</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F4" s="13"/>
     </row>
@@ -4282,10 +4232,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F5" s="13"/>
     </row>
@@ -4300,10 +4250,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F6" s="9"/>
     </row>
@@ -4321,7 +4271,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F7" s="13"/>
     </row>
@@ -4333,13 +4283,13 @@
         <v>106</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -4354,10 +4304,10 @@
         <v>130</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F9" s="13"/>
     </row>
@@ -4375,7 +4325,7 @@
         <v>114</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F10" s="8"/>
     </row>
@@ -4393,7 +4343,7 @@
         <v>116</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F11" s="8"/>
     </row>
@@ -4411,7 +4361,7 @@
         <v>103</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F12" s="13"/>
     </row>
@@ -4426,10 +4376,10 @@
         <v>21</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F13" s="11"/>
     </row>
@@ -4447,7 +4397,7 @@
         <v>133</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F14" s="13"/>
     </row>
@@ -4465,7 +4415,7 @@
         <v>155</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -4483,7 +4433,7 @@
         <v>135</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F16" s="13"/>
     </row>
@@ -4501,7 +4451,7 @@
         <v>136</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F17" s="13"/>
     </row>
@@ -4516,10 +4466,10 @@
         <v>14</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F18" s="13"/>
     </row>
@@ -4531,13 +4481,13 @@
         <v>106</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>176</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -4555,7 +4505,7 @@
         <v>137</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F20" s="13"/>
     </row>
@@ -4573,7 +4523,7 @@
         <v>138</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F21" s="13"/>
     </row>
@@ -4591,7 +4541,7 @@
         <v>16</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F22" s="13"/>
     </row>
@@ -4606,10 +4556,10 @@
         <v>17</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -4627,7 +4577,7 @@
         <v>132</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F24" s="13"/>
     </row>
@@ -4645,7 +4595,7 @@
         <v>139</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F25" s="13"/>
     </row>
@@ -4663,7 +4613,7 @@
         <v>140</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F26" s="13"/>
     </row>
@@ -4678,10 +4628,10 @@
         <v>59</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F27" s="13"/>
     </row>
@@ -4699,7 +4649,7 @@
         <v>141</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F28" s="13"/>
     </row>
@@ -4717,7 +4667,7 @@
         <v>143</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F29" s="13"/>
     </row>
@@ -4735,7 +4685,7 @@
         <v>35</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F30" s="13"/>
     </row>
@@ -4753,7 +4703,7 @@
         <v>144</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F31" s="13"/>
     </row>
@@ -4771,7 +4721,7 @@
         <v>41</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F32" s="13"/>
     </row>
@@ -4789,7 +4739,7 @@
         <v>145</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F33" s="13"/>
     </row>
@@ -4807,7 +4757,7 @@
         <v>38</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F34" s="13"/>
     </row>
@@ -4825,7 +4775,7 @@
         <v>146</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F35" s="13"/>
     </row>
@@ -4843,7 +4793,7 @@
         <v>147</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F36" s="13"/>
     </row>
@@ -4861,7 +4811,7 @@
         <v>148</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F37" s="13"/>
     </row>
@@ -4879,7 +4829,7 @@
         <v>149</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F38" s="13"/>
     </row>
@@ -4891,13 +4841,13 @@
         <v>106</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F39" s="8"/>
     </row>
@@ -4912,10 +4862,10 @@
         <v>33</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F40" s="13"/>
     </row>
@@ -4933,7 +4883,7 @@
         <v>151</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F41" s="13"/>
     </row>
@@ -4951,7 +4901,7 @@
         <v>153</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F42" s="13"/>
     </row>
@@ -4969,7 +4919,7 @@
         <v>154</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F43" s="13"/>
     </row>
@@ -4987,7 +4937,7 @@
         <v>51</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F44" s="13"/>
     </row>
@@ -5059,8 +5009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBB57A3-C076-48DB-A987-69C15D972AE4}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5070,10 +5020,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -5081,7 +5031,7 @@
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -5089,7 +5039,7 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -5097,7 +5047,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -5105,7 +5055,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -5113,7 +5063,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -5121,7 +5071,7 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -5129,7 +5079,7 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -5137,7 +5087,7 @@
         <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -5145,7 +5095,7 @@
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -5153,7 +5103,7 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -5161,7 +5111,7 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -5169,7 +5119,7 @@
         <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -5177,7 +5127,7 @@
         <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -5185,7 +5135,7 @@
         <v>134</v>
       </c>
       <c r="B18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -5193,7 +5143,7 @@
         <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -5201,7 +5151,7 @@
         <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -5209,7 +5159,7 @@
         <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -5217,7 +5167,7 @@
         <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -5225,7 +5175,7 @@
         <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -5233,103 +5183,103 @@
         <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B28" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B29" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B30" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B31" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B32" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B33" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B34" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B35" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B37" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B38" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B39" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B40" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/lib/pkmeta.xlsx
+++ b/lib/pkmeta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feng.yang\Documents\handbook\lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\QP Portal\LIB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BF54EC-8DAE-4184-BB34-EC46C1B7422A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F65F3C52-D0B7-4451-BA3D-798EEA6E76B7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nmdat" sheetId="8" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="242">
   <si>
     <t>STUDYID</t>
   </si>
@@ -67,9 +67,6 @@
     <t>PKDAY_C</t>
   </si>
   <si>
-    <t>TAD</t>
-  </si>
-  <si>
     <t>EXTRT</t>
   </si>
   <si>
@@ -358,9 +355,6 @@
     <t>CFLAG</t>
   </si>
   <si>
-    <t>Reason for exclusion</t>
-  </si>
-  <si>
     <t>ROWID</t>
   </si>
   <si>
@@ -373,9 +367,6 @@
     <t>Actual Elapsed Time from 1st Dose (day)</t>
   </si>
   <si>
-    <t>Time Since Previous Dose (day)</t>
-  </si>
-  <si>
     <t>Nominal Elapsed Time from 1st Dose (day)</t>
   </si>
   <si>
@@ -616,9 +607,6 @@
     <t>Completers Population Flag (Y/N)</t>
   </si>
   <si>
-    <t>VISITN</t>
-  </si>
-  <si>
     <t>Flag for &lt;LLOQ (0/1)</t>
   </si>
   <si>
@@ -643,9 +631,6 @@
     <t>Test Name (Label)</t>
   </si>
   <si>
-    <t>CFLAGN</t>
-  </si>
-  <si>
     <t>Reason for exclusion (N)</t>
   </si>
   <si>
@@ -749,13 +734,31 @@
   </si>
   <si>
     <t xml:space="preserve"> INTRAMUSCULAR </t>
+  </si>
+  <si>
+    <t>VISITNUM</t>
+  </si>
+  <si>
+    <t>EXSEQ</t>
+  </si>
+  <si>
+    <t>Duration of dose</t>
+  </si>
+  <si>
+    <t>Sequence number of dose</t>
+  </si>
+  <si>
+    <t>EXTDOSE</t>
+  </si>
+  <si>
+    <t>Total dose (mg) at the visit level</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -926,6 +929,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1301,7 +1309,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1344,6 +1352,9 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1724,1236 +1735,1209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>158</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>161</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>108</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>1</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>1</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>170</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>173</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>1</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>1</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>1</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>1</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>1</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>1</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>1</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>1</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>1</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>1</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>1</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>1</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>2</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>2</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>2</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
     </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>2</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>175</v>
+        <v>8</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>7</v>
+        <v>236</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F26" s="13"/>
+        <v>170</v>
+      </c>
+      <c r="F26" s="8"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>2</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>9</v>
+        <v>127</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>165</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="F27" s="8"/>
+        <v>168</v>
+      </c>
+      <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>2</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>168</v>
+        <v>19</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="8">
-        <v>2</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-    </row>
-    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>2</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="5">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="5">
-        <v>2</v>
-      </c>
-      <c r="B32" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>2</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>2</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>2</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
     </row>
-    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>2</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>135</v>
-      </c>
       <c r="E34" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>2</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>2</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>2</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>2</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>2</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
     </row>
-    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>2</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
     </row>
-    <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>2</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
     </row>
-    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>2</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>2</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>167</v>
+        <v>34</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
     </row>
-    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>2</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>141</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
     </row>
-    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>2</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
     </row>
-    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>2</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
     </row>
-    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>2</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
     </row>
-    <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>2</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
     </row>
-    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>2</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>145</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
     </row>
-    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>2</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
     </row>
-    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
     </row>
-    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
     </row>
-    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
     </row>
-    <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>3</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
     </row>
-    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>3</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
     </row>
-    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="8">
-        <v>3</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>172</v>
-      </c>
+    <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="8"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="8"/>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
     </row>
-    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="8">
-        <v>3</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>171</v>
-      </c>
+    <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="8"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="8"/>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
     </row>
-    <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="8">
-        <v>3</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>173</v>
-      </c>
+    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="8"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="8"/>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
     </row>
-    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="8"/>
       <c r="B59" s="13"/>
       <c r="C59" s="9"/>
@@ -2964,41 +2948,8 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
     </row>
-    <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="8"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-    </row>
-    <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="8"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-    </row>
-    <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="8"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-    </row>
-    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F63" s="3"/>
+    <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F60" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3010,463 +2961,463 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A25"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.26953125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="6" max="6" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>161</v>
-      </c>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>2</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="14">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="15">
-        <v>3</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="E6" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>2</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>2</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="15">
-        <v>3</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="E8" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>2</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>2</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="15">
-        <v>3</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="15">
-        <v>3</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="E10" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>2</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="15">
-        <v>3</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="15">
-        <v>3</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="15">
-        <v>3</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>2</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="15">
-        <v>3</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="D12" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
+        <v>2</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
+        <v>2</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="15">
-        <v>3</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="15">
-        <v>3</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>149</v>
-      </c>
       <c r="E14" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>3</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>3</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>3</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>3</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>3</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>3</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
         <v>3</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <v>3</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>3</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>3</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3477,219 +3428,219 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7265625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="7"/>
+    <col min="1" max="1" width="4.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>50</v>
-      </c>
       <c r="D5" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16">
-        <v>1</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>19</v>
-      </c>
       <c r="D7" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>17</v>
-      </c>
       <c r="D9" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>2</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>7</v>
@@ -3698,64 +3649,116 @@
         <v>8</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>2</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>2</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>2</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>114</v>
+        <v>105</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>164</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F15" s="9"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>2</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
+        <v>2</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <v>2</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>170</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3763,164 +3766,164 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A17" sqref="A16:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.7265625" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" t="s">
         <v>158</v>
       </c>
-      <c r="B1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
@@ -3929,202 +3932,202 @@
         <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="5">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="5">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="5">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="2">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="2">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="2">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="E20" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4134,862 +4137,922 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037B2CA-8556-415F-8A2F-2F4FB3FA0E24}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" s="7" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>1</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>1</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>1</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>1</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>1</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>1</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>1</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>1</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>1</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>1</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>1</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>1</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>1</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>1</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>1</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>1</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>1</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>1</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>1</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>1</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>1</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>1</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>1</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
+        <v>1</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
+        <v>1</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8">
+        <v>1</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8">
+        <v>1</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8">
+        <v>1</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8">
+        <v>1</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8">
+        <v>1</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="8">
+        <v>3</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="8">
+        <v>3</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="E46" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F46" s="13"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="8">
+        <v>3</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="8">
+        <v>3</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F48" s="13"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="8">
+        <v>3</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8">
+        <v>3</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="8">
-        <v>1</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="8">
-        <v>1</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="8">
-        <v>1</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="8">
-        <v>1</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="8">
-        <v>1</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="8">
-        <v>1</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="8">
-        <v>1</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="8">
-        <v>1</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="8">
-        <v>1</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="8">
-        <v>1</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="8">
-        <v>1</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="8">
-        <v>1</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="8">
-        <v>1</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="8">
-        <v>1</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="8">
-        <v>1</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="8">
-        <v>1</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="9" t="s">
+      <c r="D50" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="8">
-        <v>1</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="8">
-        <v>1</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="8">
-        <v>1</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="8">
-        <v>1</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F30" s="13"/>
-    </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="8">
-        <v>1</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="8">
-        <v>1</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F32" s="13"/>
-    </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="8">
-        <v>1</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="8">
-        <v>1</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="8">
-        <v>1</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="8">
-        <v>1</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="8">
-        <v>1</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="8">
-        <v>1</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F38" s="13"/>
-    </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="8">
-        <v>3</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="F39" s="8"/>
-    </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="8">
-        <v>3</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="8">
-        <v>3</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F41" s="13"/>
-    </row>
-    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="8">
-        <v>3</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="F42" s="13"/>
-    </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="8">
-        <v>3</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F43" s="13"/>
-    </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="8">
-        <v>3</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F44" s="13"/>
-    </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="8"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="13"/>
-    </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="8"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="13"/>
-    </row>
-    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="8"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="13"/>
-    </row>
-    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="8"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="13"/>
-    </row>
-    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="8"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="13"/>
-    </row>
-    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="8"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="8"/>
+      <c r="E50" s="8" t="s">
+        <v>168</v>
+      </c>
       <c r="F50" s="13"/>
     </row>
-    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="13"/>
       <c r="C51" s="9"/>
@@ -4997,8 +5060,56 @@
       <c r="E51" s="8"/>
       <c r="F51" s="13"/>
     </row>
-    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F52" s="3"/>
+    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="8"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="8"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="13"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="8"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="13"/>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="8"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="13"/>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="8"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="13"/>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="8"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="13"/>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F58" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5010,276 +5121,276 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="50.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
         <v>230</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>197</v>
+      </c>
+      <c r="B29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>197</v>
+      </c>
+      <c r="B31" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>197</v>
+      </c>
+      <c r="B32" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>197</v>
+      </c>
+      <c r="B34" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>201</v>
-      </c>
-      <c r="B28" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>201</v>
-      </c>
-      <c r="B29" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B30" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>201</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="B37" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>201</v>
-      </c>
-      <c r="B32" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>201</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B38" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>201</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>212</v>
+      </c>
+      <c r="B39" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>201</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>217</v>
-      </c>
-      <c r="B37" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>217</v>
-      </c>
-      <c r="B38" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>217</v>
-      </c>
-      <c r="B39" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>217</v>
-      </c>
-      <c r="B40" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -5295,36 +5406,36 @@
       <selection activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5335,56 +5446,56 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -5398,18 +5509,18 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -5418,13 +5529,13 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -5438,38 +5549,38 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
         <v>97</v>
-      </c>
-      <c r="F8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>98</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -5478,13 +5589,13 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -5495,96 +5606,96 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -5595,135 +5706,135 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18">
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25">
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
@@ -5732,49 +5843,49 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29">
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -5783,598 +5894,598 @@
         <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
         <v>45</v>
       </c>
-      <c r="B31" t="s">
-        <v>46</v>
-      </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33">
         <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
         <v>23</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>97</v>
-      </c>
-      <c r="F35" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" t="s">
-        <v>24</v>
-      </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F36" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
         <v>80</v>
       </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>97</v>
-      </c>
-      <c r="F37" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
         <v>81</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>97</v>
-      </c>
-      <c r="F38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" t="s">
         <v>82</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>97</v>
-      </c>
-      <c r="F39" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" t="s">
         <v>83</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
-        <v>97</v>
-      </c>
-      <c r="F40" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" t="s">
-        <v>84</v>
-      </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F41" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F42" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F43" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C45">
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F46" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" t="s">
+        <v>96</v>
+      </c>
+      <c r="F47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
         <v>73</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" t="s">
-        <v>97</v>
-      </c>
-      <c r="F47" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>89</v>
-      </c>
-      <c r="E48" t="s">
-        <v>97</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" t="s">
-        <v>74</v>
-      </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50">
         <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F51" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F52" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C53">
         <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F53" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C54">
         <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" t="s">
         <v>31</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>96</v>
+      </c>
+      <c r="F55" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>96</v>
+      </c>
+      <c r="F56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>32</v>
       </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="E55" t="s">
-        <v>97</v>
-      </c>
-      <c r="F55" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>31</v>
-      </c>
-      <c r="B56" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="E56" t="s">
-        <v>97</v>
-      </c>
-      <c r="F56" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>33</v>
-      </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C57">
         <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F57" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>96</v>
+      </c>
+      <c r="F58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>96</v>
+      </c>
+      <c r="F59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>33</v>
       </c>
-      <c r="B58" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="E58" t="s">
-        <v>97</v>
-      </c>
-      <c r="F58" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="B60" t="s">
         <v>33</v>
-      </c>
-      <c r="B59" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="E59" t="s">
-        <v>97</v>
-      </c>
-      <c r="F59" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60" t="s">
-        <v>34</v>
       </c>
       <c r="C60">
         <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F60" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F61" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C62">
         <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F62" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C63">
         <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F63" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C64">
         <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F64" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C65">
         <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F65" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -6385,13 +6496,13 @@
         <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F66" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -6402,333 +6513,333 @@
         <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F67" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C68">
         <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F68" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C69">
         <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F69" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C70">
         <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F70" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C71">
         <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F71" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C72">
         <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F72" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C73">
         <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F73" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C74">
         <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F74" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B75" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C75">
         <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F75" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C76">
         <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F76" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C77">
         <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F77" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C78">
         <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F78" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B79" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C79">
         <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F79" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C80">
         <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F80" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B81" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C81">
         <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C82">
         <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C83">
         <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B84" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C84">
         <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F84" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C85">
         <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F85" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B86" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C86">
         <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F86" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/lib/pkmeta.xlsx
+++ b/lib/pkmeta.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\QP Portal\LIB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F65F3C52-D0B7-4451-BA3D-798EEA6E76B7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{78E060E9-D85D-4BE6-AFFE-9B11F7A7A63B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="nmdat" sheetId="8" r:id="rId1"/>
-    <sheet name="adsl" sheetId="2" r:id="rId2"/>
-    <sheet name="adex" sheetId="3" r:id="rId3"/>
-    <sheet name="adpc" sheetId="4" r:id="rId4"/>
-    <sheet name="adpx" sheetId="9" r:id="rId5"/>
-    <sheet name="convention" sheetId="10" r:id="rId6"/>
-    <sheet name="cheatsheet" sheetId="7" r:id="rId7"/>
+    <sheet name="adsl" sheetId="2" r:id="rId1"/>
+    <sheet name="adex" sheetId="3" r:id="rId2"/>
+    <sheet name="adpc" sheetId="4" r:id="rId3"/>
+    <sheet name="nmdat" sheetId="8" r:id="rId4"/>
+    <sheet name="convention" sheetId="10" r:id="rId5"/>
+    <sheet name="cheatsheet" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="238">
   <si>
     <t>STUDYID</t>
   </si>
@@ -409,9 +408,6 @@
     <t>Unique subject identifier</t>
   </si>
   <si>
-    <t>PCTPT</t>
-  </si>
-  <si>
     <t>Actual Treatment</t>
   </si>
   <si>
@@ -541,9 +537,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>Analysis Population Indicators</t>
-  </si>
-  <si>
     <t>Description of Actual Arm</t>
   </si>
   <si>
@@ -746,19 +739,13 @@
   </si>
   <si>
     <t>Sequence number of dose</t>
-  </si>
-  <si>
-    <t>EXTDOSE</t>
-  </si>
-  <si>
-    <t>Total dose (mg) at the visit level</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -922,11 +909,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1309,7 +1291,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1349,11 +1331,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1734,1235 +1715,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I60"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>1</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>1</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>1</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>1</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>1</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>1</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>1</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>1</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>1</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>1</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>1</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>2</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>2</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>2</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
-        <v>2</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
-        <v>2</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
-        <v>2</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
-        <v>2</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
-        <v>2</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
-        <v>2</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
-        <v>2</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
-        <v>2</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8">
-        <v>2</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8">
-        <v>2</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8">
-        <v>2</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8">
-        <v>2</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8">
-        <v>2</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8">
-        <v>2</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8">
-        <v>2</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8">
-        <v>2</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="8">
-        <v>2</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="8">
-        <v>2</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8">
-        <v>2</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="8">
-        <v>2</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="8">
-        <v>2</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="8">
-        <v>2</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="8">
-        <v>2</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="8">
-        <v>2</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="8">
-        <v>2</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="8">
-        <v>3</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="8">
-        <v>3</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="8">
-        <v>3</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-    </row>
-    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="8">
-        <v>3</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-    </row>
-    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="8">
-        <v>3</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-    </row>
-    <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-    </row>
-    <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="8"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="8"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-    </row>
-    <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="8"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-    </row>
-    <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F60" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2978,19 +1735,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>157</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>158</v>
       </c>
       <c r="F1" s="13"/>
     </row>
@@ -3008,7 +1765,7 @@
         <v>86</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F2" s="13"/>
     </row>
@@ -3023,10 +1780,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F3" s="13"/>
     </row>
@@ -3041,10 +1798,10 @@
         <v>56</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F4" s="13"/>
     </row>
@@ -3059,10 +1816,10 @@
         <v>28</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F5" s="13"/>
     </row>
@@ -3074,13 +1831,13 @@
         <v>105</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F6" s="13"/>
     </row>
@@ -3098,7 +1855,7 @@
         <v>34</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F7" s="13"/>
     </row>
@@ -3113,10 +1870,10 @@
         <v>35</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F8" s="13"/>
     </row>
@@ -3134,7 +1891,7 @@
         <v>40</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F9" s="13"/>
     </row>
@@ -3149,10 +1906,10 @@
         <v>41</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F10" s="13"/>
     </row>
@@ -3170,7 +1927,7 @@
         <v>37</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F11" s="13"/>
     </row>
@@ -3185,10 +1942,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F12" s="13"/>
     </row>
@@ -3203,10 +1960,10 @@
         <v>55</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F13" s="13"/>
     </row>
@@ -3221,10 +1978,10 @@
         <v>30</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F14" s="13"/>
     </row>
@@ -3239,10 +1996,10 @@
         <v>32</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F15" s="13"/>
     </row>
@@ -3257,10 +2014,10 @@
         <v>47</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F16" s="13"/>
     </row>
@@ -3278,7 +2035,7 @@
         <v>50</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F17" s="13"/>
     </row>
@@ -3290,13 +2047,13 @@
         <v>105</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F18" s="13"/>
     </row>
@@ -3308,13 +2065,13 @@
         <v>105</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>150</v>
-      </c>
       <c r="E19" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F19" s="13"/>
     </row>
@@ -3326,13 +2083,13 @@
         <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>178</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>187</v>
+        <v>176</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>185</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3343,13 +2100,13 @@
         <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3360,13 +2117,13 @@
         <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3377,13 +2134,13 @@
         <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3394,13 +2151,13 @@
         <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3411,13 +2168,13 @@
         <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3426,7 +2183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
@@ -3448,19 +2205,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3477,7 +2234,7 @@
         <v>86</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3494,7 +2251,7 @@
         <v>126</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3508,10 +2265,10 @@
         <v>48</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3525,10 +2282,10 @@
         <v>49</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3542,10 +2299,10 @@
         <v>17</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F6" s="9"/>
     </row>
@@ -3560,10 +2317,10 @@
         <v>18</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3580,7 +2337,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3594,10 +2351,10 @@
         <v>16</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3611,10 +2368,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3628,10 +2385,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F11" s="9"/>
     </row>
@@ -3649,7 +2406,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3660,13 +2417,13 @@
         <v>105</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F13" s="9"/>
     </row>
@@ -3684,7 +2441,7 @@
         <v>112</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F14" s="9"/>
     </row>
@@ -3695,14 +2452,14 @@
       <c r="B15" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>58</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3716,10 +2473,10 @@
         <v>13</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3733,10 +2490,10 @@
         <v>84</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3747,13 +2504,13 @@
         <v>105</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>239</v>
-      </c>
       <c r="E18" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3762,12 +2519,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A17" sqref="A16:XFD17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3782,19 +2539,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
         <v>155</v>
       </c>
-      <c r="B1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>156</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>157</v>
-      </c>
-      <c r="E1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3811,7 +2568,7 @@
         <v>86</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3828,7 +2585,7 @@
         <v>126</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3842,10 +2599,10 @@
         <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3859,10 +2616,10 @@
         <v>54</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -3874,13 +2631,13 @@
         <v>105</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3894,10 +2651,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3911,10 +2668,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F8" s="4"/>
     </row>
@@ -3932,7 +2689,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3943,13 +2700,13 @@
         <v>105</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F10" s="4"/>
     </row>
@@ -3960,14 +2717,14 @@
       <c r="B11" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>127</v>
+      <c r="C11" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3984,7 +2741,7 @@
         <v>112</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F12" s="4"/>
     </row>
@@ -4002,7 +2759,7 @@
         <v>113</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F13" s="4"/>
     </row>
@@ -4017,10 +2774,10 @@
         <v>19</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4034,10 +2791,10 @@
         <v>20</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F15" s="6"/>
     </row>
@@ -4049,13 +2806,13 @@
         <v>105</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F16" s="6"/>
     </row>
@@ -4067,13 +2824,13 @@
         <v>105</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F17" s="6"/>
     </row>
@@ -4088,10 +2845,10 @@
         <v>25</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F18" s="4"/>
     </row>
@@ -4109,7 +2866,7 @@
         <v>121</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F19" s="4"/>
     </row>
@@ -4124,10 +2881,10 @@
         <v>100</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4135,12 +2892,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037B2CA-8556-415F-8A2F-2F4FB3FA0E24}">
-  <dimension ref="A1:F58"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4150,27 +2907,31 @@
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>158</v>
-      </c>
       <c r="F1" s="13"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -4184,11 +2945,14 @@
         <v>107</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -4199,14 +2963,17 @@
         <v>108</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -4220,11 +2987,14 @@
         <v>110</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -4232,35 +3002,41 @@
         <v>105</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>1</v>
+      <c r="C6" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -4268,35 +3044,41 @@
         <v>105</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="8"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>1</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="13" t="s">
         <v>105</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>1</v>
       </c>
@@ -4304,35 +3086,41 @@
         <v>105</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>170</v>
-      </c>
       <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>1</v>
       </c>
@@ -4340,17 +3128,20 @@
         <v>105</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>165</v>
+        <v>116</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="8"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>1</v>
       </c>
@@ -4358,17 +3149,20 @@
         <v>105</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>169</v>
       </c>
       <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>1</v>
       </c>
@@ -4376,17 +3170,20 @@
         <v>105</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>169</v>
       </c>
       <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>1</v>
       </c>
@@ -4394,53 +3191,63 @@
         <v>105</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>1</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>1</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="8"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="B16" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="8"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>1</v>
       </c>
@@ -4448,107 +3255,125 @@
         <v>105</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>1</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>1</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="F18" s="8"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>1</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>1</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="F19" s="8"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>1</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>1</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>1</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>1</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>1</v>
       </c>
@@ -4556,17 +3381,20 @@
         <v>105</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>168</v>
       </c>
       <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>1</v>
       </c>
@@ -4574,17 +3402,20 @@
         <v>105</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>1</v>
       </c>
@@ -4592,71 +3423,83 @@
         <v>105</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>240</v>
+        <v>28</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>241</v>
+        <v>137</v>
       </c>
       <c r="E25" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>1</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>1</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>1</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
-        <v>1</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
-        <v>1</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
-        <v>1</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>168</v>
-      </c>
       <c r="F28" s="13"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>1</v>
       </c>
@@ -4664,17 +3507,20 @@
         <v>105</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>1</v>
       </c>
@@ -4682,17 +3528,20 @@
         <v>105</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>169</v>
       </c>
       <c r="F30" s="13"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>1</v>
       </c>
@@ -4700,423 +3549,595 @@
         <v>105</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="E31" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>1</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>2</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>2</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>2</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>2</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>2</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
+        <v>2</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
+        <v>2</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8">
+        <v>2</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8">
+        <v>2</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8">
+        <v>2</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8">
+        <v>2</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="8">
+        <v>2</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="8">
+        <v>2</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E46" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
-        <v>1</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F32" s="13"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
-        <v>1</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8">
-        <v>1</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8">
-        <v>1</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8">
-        <v>1</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8">
-        <v>1</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8">
-        <v>1</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F38" s="13"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8">
-        <v>1</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F39" s="13"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8">
-        <v>1</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8">
-        <v>1</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F41" s="13"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="8">
-        <v>1</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F42" s="13"/>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="8">
-        <v>1</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F43" s="13"/>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8">
-        <v>1</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F44" s="13"/>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="8">
-        <v>3</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="8">
-        <v>3</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>169</v>
-      </c>
       <c r="F46" s="13"/>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>105</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F47" s="13"/>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B48" s="13" t="s">
         <v>105</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F48" s="13"/>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>105</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>168</v>
       </c>
       <c r="F49" s="13"/>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
+        <v>2</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="8">
+        <v>2</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="8">
+        <v>2</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="8">
         <v>3</v>
       </c>
-      <c r="B50" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" s="9" t="s">
+      <c r="B53" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="8">
+        <v>3</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D54" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E50" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F50" s="13"/>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="8"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="13"/>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="8"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="13"/>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="8"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="13"/>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="8"/>
+      <c r="E54" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="F54" s="13"/>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="8"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="8"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="8">
+        <v>3</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="F55" s="13"/>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="8"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="8">
+        <v>3</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>169</v>
+      </c>
       <c r="F56" s="13"/>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="B57" s="13"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="8"/>
       <c r="F57" s="13"/>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F58" s="3"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="8"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="8"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="8"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F61" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBB57A3-C076-48DB-A987-69C15D972AE4}">
   <dimension ref="A1:B40"/>
   <sheetViews>
@@ -5131,10 +4152,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5142,7 +4163,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5150,7 +4171,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5158,7 +4179,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5166,7 +4187,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5174,7 +4195,7 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5182,7 +4203,7 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -5190,7 +4211,7 @@
         <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5198,7 +4219,7 @@
         <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5206,7 +4227,7 @@
         <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -5214,7 +4235,7 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -5222,7 +4243,7 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -5230,7 +4251,7 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -5238,15 +4259,15 @@
         <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -5254,7 +4275,7 @@
         <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -5262,7 +4283,7 @@
         <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -5270,7 +4291,7 @@
         <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -5278,7 +4299,7 @@
         <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -5286,7 +4307,7 @@
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -5294,103 +4315,103 @@
         <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B29" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B32" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B33" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B37" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B38" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B39" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B40" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -5398,7 +4419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F86"/>
   <sheetViews>

--- a/lib/pkmeta.xlsx
+++ b/lib/pkmeta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\QP Portal\LIB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feng.yang\Documents\handbook\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{78E060E9-D85D-4BE6-AFFE-9B11F7A7A63B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F84068F-A0C8-44EC-99A9-E3C63BAA445B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="adsl" sheetId="2" r:id="rId1"/>
@@ -723,12 +723,6 @@
     <t xml:space="preserve">OTHER </t>
   </si>
   <si>
-    <t xml:space="preserve"> INTRAVENOUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> INTRAMUSCULAR </t>
-  </si>
-  <si>
     <t>VISITNUM</t>
   </si>
   <si>
@@ -739,6 +733,12 @@
   </si>
   <si>
     <t>Sequence number of dose</t>
+  </si>
+  <si>
+    <t>INTRAVENOUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTRAMUSCULAR </t>
   </si>
 </sst>
 </file>
@@ -1718,22 +1718,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.26953125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>154</v>
       </c>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="F3" s="13"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="14">
         <v>1</v>
       </c>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="15">
         <v>2</v>
       </c>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="15">
         <v>2</v>
       </c>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15">
         <v>2</v>
       </c>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15">
         <v>2</v>
       </c>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15">
         <v>2</v>
       </c>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15">
         <v>2</v>
       </c>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="15">
         <v>2</v>
       </c>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="15">
         <v>2</v>
       </c>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="15">
         <v>2</v>
       </c>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="15">
         <v>2</v>
       </c>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="15">
         <v>3</v>
       </c>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="15">
         <v>3</v>
       </c>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="15">
         <v>3</v>
       </c>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="15">
         <v>3</v>
       </c>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="15">
         <v>3</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="15">
         <v>3</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="15">
         <v>3</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="15">
         <v>3</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="15">
         <v>3</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="15">
         <v>3</v>
       </c>
@@ -2191,19 +2191,19 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="4.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.7265625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>154</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16">
         <v>1</v>
       </c>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
         <v>1</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16">
         <v>1</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
         <v>2</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16">
         <v>2</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16">
         <v>2</v>
       </c>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16">
         <v>2</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16">
         <v>2</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>105</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>9</v>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16">
         <v>2</v>
       </c>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16">
         <v>2</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16">
         <v>2</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>2</v>
       </c>
@@ -2490,13 +2490,13 @@
         <v>84</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>2</v>
       </c>
@@ -2504,10 +2504,10 @@
         <v>105</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>169</v>
@@ -2527,17 +2527,17 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.7265625" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>154</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>2</v>
       </c>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>2</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>105</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>2</v>
       </c>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>2</v>
       </c>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>2</v>
       </c>
@@ -2798,7 +2798,7 @@
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>2</v>
       </c>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>2</v>
       </c>
@@ -2870,7 +2870,7 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>2</v>
       </c>
@@ -2896,21 +2896,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>154</v>
       </c>
@@ -2931,7 +2931,7 @@
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -2952,7 +2952,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -2973,7 +2973,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -2994,7 +2994,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -3015,7 +3015,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8">
         <v>1</v>
       </c>
@@ -3036,7 +3036,7 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -3057,7 +3057,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8">
         <v>1</v>
       </c>
@@ -3078,7 +3078,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8">
         <v>1</v>
       </c>
@@ -3099,7 +3099,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8">
         <v>1</v>
       </c>
@@ -3120,7 +3120,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8">
         <v>1</v>
       </c>
@@ -3141,7 +3141,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8">
         <v>1</v>
       </c>
@@ -3162,7 +3162,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8">
         <v>1</v>
       </c>
@@ -3183,7 +3183,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8">
         <v>1</v>
       </c>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8">
         <v>1</v>
       </c>
@@ -3226,7 +3226,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="8">
         <v>1</v>
       </c>
@@ -3247,7 +3247,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="8">
         <v>1</v>
       </c>
@@ -3268,7 +3268,7 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="8">
         <v>1</v>
       </c>
@@ -3289,7 +3289,7 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8">
         <v>1</v>
       </c>
@@ -3310,7 +3310,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8">
         <v>1</v>
       </c>
@@ -3331,7 +3331,7 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="8">
         <v>1</v>
       </c>
@@ -3352,7 +3352,7 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="8">
         <v>1</v>
       </c>
@@ -3373,7 +3373,7 @@
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="8">
         <v>1</v>
       </c>
@@ -3394,7 +3394,7 @@
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="8">
         <v>1</v>
       </c>
@@ -3415,7 +3415,7 @@
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="8">
         <v>1</v>
       </c>
@@ -3436,7 +3436,7 @@
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="8">
         <v>1</v>
       </c>
@@ -3457,7 +3457,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="8">
         <v>1</v>
       </c>
@@ -3478,7 +3478,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8">
         <v>1</v>
       </c>
@@ -3499,7 +3499,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8">
         <v>1</v>
       </c>
@@ -3520,7 +3520,7 @@
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="8">
         <v>1</v>
       </c>
@@ -3541,7 +3541,7 @@
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8">
         <v>1</v>
       </c>
@@ -3562,7 +3562,7 @@
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="8">
         <v>1</v>
       </c>
@@ -3583,7 +3583,7 @@
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="8">
         <v>2</v>
       </c>
@@ -3604,7 +3604,7 @@
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="8">
         <v>2</v>
       </c>
@@ -3625,7 +3625,7 @@
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8">
         <v>2</v>
       </c>
@@ -3646,7 +3646,7 @@
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="8">
         <v>2</v>
       </c>
@@ -3667,7 +3667,7 @@
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="8">
         <v>2</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>105</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>9</v>
@@ -3688,7 +3688,7 @@
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="8">
         <v>2</v>
       </c>
@@ -3709,7 +3709,7 @@
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="8">
         <v>2</v>
       </c>
@@ -3730,7 +3730,7 @@
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="8">
         <v>2</v>
       </c>
@@ -3751,7 +3751,7 @@
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="5">
         <v>2</v>
       </c>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="8">
         <v>2</v>
       </c>
@@ -3790,7 +3790,7 @@
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="8">
         <v>2</v>
       </c>
@@ -3811,7 +3811,7 @@
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="8">
         <v>2</v>
       </c>
@@ -3832,7 +3832,7 @@
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="8">
         <v>2</v>
       </c>
@@ -3853,7 +3853,7 @@
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="8">
         <v>2</v>
       </c>
@@ -3874,7 +3874,7 @@
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="8">
         <v>2</v>
       </c>
@@ -3895,7 +3895,7 @@
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="8">
         <v>2</v>
       </c>
@@ -3916,7 +3916,7 @@
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
     </row>
-    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="8">
         <v>2</v>
       </c>
@@ -3937,7 +3937,7 @@
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="8">
         <v>2</v>
       </c>
@@ -3958,7 +3958,7 @@
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="8">
         <v>2</v>
       </c>
@@ -3979,7 +3979,7 @@
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="8">
         <v>2</v>
       </c>
@@ -4000,7 +4000,7 @@
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="8">
         <v>3</v>
       </c>
@@ -4021,7 +4021,7 @@
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="8">
         <v>3</v>
       </c>
@@ -4042,7 +4042,7 @@
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="8">
         <v>3</v>
       </c>
@@ -4063,7 +4063,7 @@
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
     </row>
-    <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="8">
         <v>3</v>
       </c>
@@ -4084,7 +4084,7 @@
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
     </row>
-    <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="8"/>
       <c r="B57" s="13"/>
       <c r="C57" s="9"/>
@@ -4095,7 +4095,7 @@
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
     </row>
-    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="8"/>
       <c r="B58" s="13"/>
       <c r="C58" s="9"/>
@@ -4106,7 +4106,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
     </row>
-    <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="8"/>
       <c r="B59" s="13"/>
       <c r="C59" s="9"/>
@@ -4117,7 +4117,7 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
     </row>
-    <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="8"/>
       <c r="B60" s="13"/>
       <c r="C60" s="9"/>
@@ -4128,7 +4128,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
     </row>
-    <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F61" s="3"/>
     </row>
   </sheetData>
@@ -4141,16 +4141,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBB57A3-C076-48DB-A987-69C15D972AE4}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>223</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -4294,23 +4294,23 @@
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>195</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>195</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>195</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>195</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>195</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>195</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>195</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>195</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>210</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>210</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>210</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>210</v>
       </c>
@@ -4423,20 +4423,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="L67" sqref="L67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>30</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>30</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>32</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>32</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>32</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>33</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>39</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>46</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>47</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>48</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>49</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>52</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>52</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>53</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>53</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>27</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>21</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>24</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>25</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>26</v>
       </c>

--- a/lib/pkmeta.xlsx
+++ b/lib/pkmeta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feng.yang\Documents\handbook\lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feng.yang\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F84068F-A0C8-44EC-99A9-E3C63BAA445B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4DE9A17F-64EB-442E-80A8-95EA7F516DAE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="adsl" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="237">
   <si>
     <t>STUDYID</t>
   </si>
@@ -550,9 +550,6 @@
   </si>
   <si>
     <t>FASFL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>PKFL</t>
@@ -1291,7 +1288,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1317,9 +1314,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1718,47 +1712,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.26953125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="6" max="6" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="14">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -1767,31 +1761,31 @@
       <c r="E2" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="14">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="14">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -1803,13 +1797,13 @@
       <c r="E4" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="15">
-        <v>2</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -1821,31 +1815,31 @@
       <c r="E5" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="15">
-        <v>2</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>138</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="15">
-        <v>2</v>
-      </c>
-      <c r="B7" s="13" t="s">
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>2</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -1857,13 +1851,13 @@
       <c r="E7" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="15">
-        <v>2</v>
-      </c>
-      <c r="B8" s="13" t="s">
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>2</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1875,13 +1869,13 @@
       <c r="E8" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="15">
-        <v>2</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
+        <v>2</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -1893,13 +1887,13 @@
       <c r="E9" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="15">
-        <v>2</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>2</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -1911,13 +1905,13 @@
       <c r="E10" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="15">
-        <v>2</v>
-      </c>
-      <c r="B11" s="13" t="s">
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
+        <v>2</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1929,13 +1923,13 @@
       <c r="E11" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="15">
-        <v>2</v>
-      </c>
-      <c r="B12" s="13" t="s">
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>2</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -1947,31 +1941,31 @@
       <c r="E12" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="15">
-        <v>2</v>
-      </c>
-      <c r="B13" s="13" t="s">
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>2</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="15">
-        <v>2</v>
-      </c>
-      <c r="B14" s="13" t="s">
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>2</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -1983,13 +1977,13 @@
       <c r="E14" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="15">
-        <v>2</v>
-      </c>
-      <c r="B15" s="13" t="s">
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
+        <v>2</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -2001,13 +1995,13 @@
       <c r="E15" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="15">
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
         <v>3</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -2019,13 +2013,13 @@
       <c r="E16" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="15">
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
         <v>3</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -2037,31 +2031,31 @@
       <c r="E17" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="15">
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
         <v>3</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>146</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="15">
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
         <v>3</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -2073,105 +2067,105 @@
       <c r="E19" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="15">
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
         <v>3</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>176</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>185</v>
+        <v>175</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>184</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="15">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
         <v>3</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C21" t="s">
         <v>174</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
+        <v>3</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="15">
+      <c r="E22" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
         <v>3</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B23" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" t="s">
         <v>177</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D23" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="15">
+      <c r="E23" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
         <v>3</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B24" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="15">
+      <c r="E24" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
         <v>3</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B25" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
         <v>179</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="15">
-        <v>3</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" t="s">
-        <v>180</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>167</v>
@@ -2191,20 +2185,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7265625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="7"/>
+    <col min="1" max="1" width="4.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>154</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -2220,8 +2214,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16">
+    <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -2237,8 +2231,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16">
+    <row r="3" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -2254,8 +2248,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16">
+    <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -2271,8 +2265,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16">
+    <row r="5" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -2288,8 +2282,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16">
+    <row r="6" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -2306,8 +2300,8 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16">
+    <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2323,8 +2317,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16">
+    <row r="8" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -2340,8 +2334,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16">
+    <row r="9" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
         <v>2</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -2357,8 +2351,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16">
+    <row r="10" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2374,8 +2368,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="16">
+    <row r="11" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
         <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -2392,8 +2386,8 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16">
+    <row r="12" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
         <v>2</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -2409,15 +2403,15 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16">
+    <row r="13" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
         <v>2</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>105</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>9</v>
@@ -2427,8 +2421,8 @@
       </c>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16">
+    <row r="14" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
         <v>2</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2445,14 +2439,14 @@
       </c>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16">
+    <row r="15" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
         <v>2</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>58</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -2462,8 +2456,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16">
+    <row r="16" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
         <v>2</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -2479,8 +2473,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
         <v>2</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -2490,24 +2484,24 @@
         <v>84</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="15">
         <v>2</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>105</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>169</v>
@@ -2527,17 +2521,17 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.7265625" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>154</v>
       </c>
@@ -2554,7 +2548,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2571,7 +2565,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2588,7 +2582,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2599,13 +2593,13 @@
         <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -2623,7 +2617,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -2640,7 +2634,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -2657,7 +2651,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>2</v>
       </c>
@@ -2675,7 +2669,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -2692,7 +2686,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>2</v>
       </c>
@@ -2700,7 +2694,7 @@
         <v>105</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
@@ -2710,7 +2704,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -2721,13 +2715,13 @@
         <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>2</v>
       </c>
@@ -2745,7 +2739,7 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>2</v>
       </c>
@@ -2763,7 +2757,7 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -2774,13 +2768,13 @@
         <v>19</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>2</v>
       </c>
@@ -2798,7 +2792,7 @@
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -2806,35 +2800,35 @@
         <v>105</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="5">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>196</v>
-      </c>
       <c r="E17" s="3" t="s">
         <v>167</v>
       </c>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -2845,14 +2839,14 @@
         <v>25</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>169</v>
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>2</v>
       </c>
@@ -2870,7 +2864,7 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>2</v>
       </c>
@@ -2894,48 +2888,42 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F4" sqref="F1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -2947,37 +2935,29 @@
       <c r="E2" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -2989,16 +2969,12 @@
       <c r="E4" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -3010,16 +2986,12 @@
       <c r="E5" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>1</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -3031,16 +3003,12 @@
       <c r="E6" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>1</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -3052,16 +3020,12 @@
       <c r="E7" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>1</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -3073,16 +3037,12 @@
       <c r="E8" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>1</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -3094,16 +3054,12 @@
       <c r="E9" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>1</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -3115,16 +3071,12 @@
       <c r="E10" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>1</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -3136,16 +3088,12 @@
       <c r="E11" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>1</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -3157,16 +3105,12 @@
       <c r="E12" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>1</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -3178,16 +3122,12 @@
       <c r="E13" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>1</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -3199,18 +3139,12 @@
       <c r="E14" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>1</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -3222,15 +3156,12 @@
       <c r="E15" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>1</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -3242,16 +3173,12 @@
       <c r="E16" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>1</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -3263,16 +3190,12 @@
       <c r="E17" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>1</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -3284,16 +3207,12 @@
       <c r="E18" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-    </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>1</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -3305,16 +3224,12 @@
       <c r="E19" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>1</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C20" s="9" t="s">
@@ -3326,16 +3241,12 @@
       <c r="E20" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>1</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -3347,16 +3258,12 @@
       <c r="E21" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-    </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>1</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -3368,16 +3275,12 @@
       <c r="E22" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-    </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>1</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -3389,16 +3292,12 @@
       <c r="E23" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>1</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C24" s="9" t="s">
@@ -3410,16 +3309,12 @@
       <c r="E24" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-    </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>1</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -3431,16 +3326,12 @@
       <c r="E25" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-    </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>1</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -3452,16 +3343,12 @@
       <c r="E26" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-    </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>1</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C27" s="9" t="s">
@@ -3473,16 +3360,12 @@
       <c r="E27" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-    </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>1</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C28" s="9" t="s">
@@ -3494,16 +3377,12 @@
       <c r="E28" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-    </row>
-    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>1</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -3515,16 +3394,12 @@
       <c r="E29" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-    </row>
-    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>1</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -3536,16 +3411,12 @@
       <c r="E30" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-    </row>
-    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>1</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C31" s="9" t="s">
@@ -3557,16 +3428,12 @@
       <c r="E31" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-    </row>
-    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>1</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -3578,16 +3445,12 @@
       <c r="E32" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-    </row>
-    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>2</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C33" s="9" t="s">
@@ -3599,16 +3462,12 @@
       <c r="E33" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-    </row>
-    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>2</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -3620,16 +3479,12 @@
       <c r="E34" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-    </row>
-    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>2</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -3641,16 +3496,12 @@
       <c r="E35" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-    </row>
-    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>2</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C36" s="9" t="s">
@@ -3662,20 +3513,16 @@
       <c r="E36" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-    </row>
-    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>2</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>9</v>
@@ -3683,37 +3530,29 @@
       <c r="E37" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-    </row>
-    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>2</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="11" t="s">
         <v>164</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-    </row>
-    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>2</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -3725,55 +3564,46 @@
       <c r="E39" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-    </row>
-    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>2</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C40" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-    </row>
-    <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="5">
-        <v>2</v>
-      </c>
-      <c r="B41" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>196</v>
-      </c>
       <c r="E41" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>2</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -3785,16 +3615,12 @@
       <c r="E42" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-    </row>
-    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>2</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C43" s="9" t="s">
@@ -3806,16 +3632,12 @@
       <c r="E43" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-    </row>
-    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>2</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C44" s="9" t="s">
@@ -3827,16 +3649,12 @@
       <c r="E44" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-    </row>
-    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>2</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C45" s="9" t="s">
@@ -3848,16 +3666,12 @@
       <c r="E45" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-    </row>
-    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>2</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C46" s="9" t="s">
@@ -3869,16 +3683,12 @@
       <c r="E46" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-    </row>
-    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>2</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C47" s="9" t="s">
@@ -3890,16 +3700,12 @@
       <c r="E47" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-    </row>
-    <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>2</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C48" s="9" t="s">
@@ -3911,16 +3717,12 @@
       <c r="E48" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-    </row>
-    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>2</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -3932,16 +3734,12 @@
       <c r="E49" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-    </row>
-    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>2</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C50" s="9" t="s">
@@ -3953,16 +3751,12 @@
       <c r="E50" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-    </row>
-    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>2</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C51" s="9" t="s">
@@ -3974,16 +3768,12 @@
       <c r="E51" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-    </row>
-    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>2</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C52" s="9" t="s">
@@ -3995,16 +3785,12 @@
       <c r="E52" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-    </row>
-    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>3</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C53" s="9" t="s">
@@ -4016,16 +3802,12 @@
       <c r="E53" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-    </row>
-    <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>3</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C54" s="9" t="s">
@@ -4037,16 +3819,12 @@
       <c r="E54" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-    </row>
-    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>3</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C55" s="9" t="s">
@@ -4058,16 +3836,12 @@
       <c r="E55" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-    </row>
-    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>3</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C56" s="9" t="s">
@@ -4079,57 +3853,34 @@
       <c r="E56" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-    </row>
-    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
-      <c r="B57" s="13"/>
+      <c r="B57" s="12"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="8"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-    </row>
-    <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
-      <c r="B58" s="13"/>
+      <c r="B58" s="12"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="8"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-    </row>
-    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="8"/>
-      <c r="B59" s="13"/>
+      <c r="B59" s="12"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="8"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-    </row>
-    <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
-      <c r="B60" s="13"/>
+      <c r="B60" s="12"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="8"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-    </row>
-    <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F61" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4145,273 +3896,273 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="50.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" t="s">
         <v>223</v>
       </c>
-      <c r="B1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>130</v>
       </c>
       <c r="B18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
       <c r="B26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>194</v>
+      </c>
+      <c r="B32" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>194</v>
+      </c>
+      <c r="B34" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>195</v>
-      </c>
-      <c r="B28" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>195</v>
-      </c>
-      <c r="B29" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>195</v>
-      </c>
-      <c r="B30" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>195</v>
-      </c>
-      <c r="B31" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>195</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="B37" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>195</v>
-      </c>
-      <c r="B33" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>195</v>
-      </c>
-      <c r="B34" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>195</v>
-      </c>
-      <c r="B35" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>210</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>209</v>
+      </c>
+      <c r="B38" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>210</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>210</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>209</v>
+      </c>
+      <c r="B40" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>210</v>
-      </c>
-      <c r="B40" t="s">
-        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -4427,16 +4178,16 @@
       <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
@@ -4456,7 +4207,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4476,7 +4227,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4496,7 +4247,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4516,7 +4267,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -4536,7 +4287,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -4556,7 +4307,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -4576,7 +4327,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -4596,7 +4347,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -4616,7 +4367,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -4636,7 +4387,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -4656,7 +4407,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -4676,7 +4427,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -4696,7 +4447,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -4716,7 +4467,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -4736,7 +4487,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -4756,7 +4507,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4776,7 +4527,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -4796,7 +4547,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4816,7 +4567,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -4836,7 +4587,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -4853,7 +4604,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -4870,7 +4621,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -4887,7 +4638,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -4904,7 +4655,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -4921,7 +4672,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -4938,7 +4689,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -4955,7 +4706,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -4972,7 +4723,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -4989,7 +4740,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -5006,7 +4757,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -5023,7 +4774,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -5040,7 +4791,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -5057,7 +4808,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -5074,7 +4825,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -5091,7 +4842,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -5108,7 +4859,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -5125,7 +4876,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -5145,7 +4896,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -5165,7 +4916,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -5185,7 +4936,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -5205,7 +4956,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -5225,7 +4976,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -5245,7 +4996,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -5262,7 +5013,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -5279,7 +5030,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -5299,7 +5050,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -5319,7 +5070,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>30</v>
       </c>
@@ -5336,7 +5087,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>30</v>
       </c>
@@ -5353,7 +5104,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>32</v>
       </c>
@@ -5370,7 +5121,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>32</v>
       </c>
@@ -5387,7 +5138,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>32</v>
       </c>
@@ -5404,7 +5155,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>33</v>
       </c>
@@ -5421,7 +5172,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -5438,7 +5189,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -5455,7 +5206,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>39</v>
       </c>
@@ -5472,7 +5223,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>46</v>
       </c>
@@ -5489,7 +5240,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>47</v>
       </c>
@@ -5506,7 +5257,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -5523,7 +5274,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -5540,7 +5291,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -5557,7 +5308,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -5574,7 +5325,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -5591,7 +5342,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -5608,7 +5359,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -5625,7 +5376,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -5642,7 +5393,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -5659,7 +5410,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -5676,7 +5427,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>48</v>
       </c>
@@ -5693,7 +5444,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>49</v>
       </c>
@@ -5710,7 +5461,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>52</v>
       </c>
@@ -5727,7 +5478,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>52</v>
       </c>
@@ -5744,7 +5495,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>53</v>
       </c>
@@ -5761,7 +5512,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>53</v>
       </c>
@@ -5778,7 +5529,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>27</v>
       </c>
@@ -5795,7 +5546,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>21</v>
       </c>
@@ -5812,7 +5563,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>24</v>
       </c>
@@ -5829,7 +5580,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>25</v>
       </c>
@@ -5846,7 +5597,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>26</v>
       </c>

--- a/lib/pkmeta.xlsx
+++ b/lib/pkmeta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feng.yang\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feng.yang\Documents\handbook\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4DE9A17F-64EB-442E-80A8-95EA7F516DAE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23B52DF-BFB9-43F9-9FA4-1102E1A9022F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="adsl" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="261">
   <si>
     <t>STUDYID</t>
   </si>
@@ -348,9 +348,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>Flag to exclude record(s)</t>
-  </si>
-  <si>
     <t>CFLAG</t>
   </si>
   <si>
@@ -396,57 +393,27 @@
     <t>CMT</t>
   </si>
   <si>
-    <t>NONMEM compartment</t>
-  </si>
-  <si>
     <t>MDV</t>
   </si>
   <si>
     <t>Missing Dependent Variable</t>
   </si>
   <si>
-    <t>Unique subject identifier</t>
-  </si>
-  <si>
     <t>Actual Treatment</t>
   </si>
   <si>
-    <t>Duration of infusion (day)</t>
-  </si>
-  <si>
-    <t>Method of test or examination</t>
-  </si>
-  <si>
     <t>DVORU</t>
   </si>
   <si>
     <t>Standard Unit for DVOR</t>
   </si>
   <si>
-    <t>Sample collection date and time</t>
-  </si>
-  <si>
-    <t>Dose in a convenient way </t>
-  </si>
-  <si>
-    <t>Dose unit</t>
-  </si>
-  <si>
-    <t>Drug administration start date and time</t>
-  </si>
-  <si>
-    <t>Drug administration end date and time</t>
-  </si>
-  <si>
     <t>Age (year)</t>
   </si>
   <si>
     <t>AGEU</t>
   </si>
   <si>
-    <t>Unit of year</t>
-  </si>
-  <si>
     <t>Sex (N)</t>
   </si>
   <si>
@@ -459,9 +426,6 @@
     <t>Baseline Body Weight (kg)</t>
   </si>
   <si>
-    <t>Baseline height (cm)</t>
-  </si>
-  <si>
     <t>Baseline BMI (kg/m^2)</t>
   </si>
   <si>
@@ -480,12 +444,6 @@
     <t>Study Site Identifier</t>
   </si>
   <si>
-    <t>Dependent Variable (original)</t>
-  </si>
-  <si>
-    <t>Dependent Variable (at modeler's will)</t>
-  </si>
-  <si>
     <t>which.column</t>
   </si>
   <si>
@@ -516,18 +474,9 @@
     <t>Route of Administration (N)</t>
   </si>
   <si>
-    <t>Treatment start date and time</t>
-  </si>
-  <si>
-    <t>Planned time point variable</t>
-  </si>
-  <si>
     <t>EXTRTN</t>
   </si>
   <si>
-    <t>Treatment received (N)</t>
-  </si>
-  <si>
     <t>char</t>
   </si>
   <si>
@@ -543,12 +492,6 @@
     <t>Description of Actual Arm (N) </t>
   </si>
   <si>
-    <t>Analyte name (N)</t>
-  </si>
-  <si>
-    <t>Treatment received</t>
-  </si>
-  <si>
     <t>FASFL</t>
   </si>
   <si>
@@ -576,12 +519,6 @@
     <t>ADA Status</t>
   </si>
   <si>
-    <t>Unit of Year</t>
-  </si>
-  <si>
-    <t>PK flag (Y/N)</t>
-  </si>
-  <si>
     <t>Full Analysis Set (Y/N)</t>
   </si>
   <si>
@@ -600,12 +537,6 @@
     <t>Flag for &lt;LLOQ (0/1)</t>
   </si>
   <si>
-    <t>Planned Timepoint (Nominal), or ATPT</t>
-  </si>
-  <si>
-    <t>Analysis Datetime, SAMDTTM, ADTM</t>
-  </si>
-  <si>
     <t>TESTCD</t>
   </si>
   <si>
@@ -621,9 +552,6 @@
     <t>Test Name (Label)</t>
   </si>
   <si>
-    <t>Reason for exclusion (N)</t>
-  </si>
-  <si>
     <t>MALE</t>
   </si>
   <si>
@@ -726,16 +654,160 @@
     <t>EXSEQ</t>
   </si>
   <si>
-    <t>Duration of dose</t>
-  </si>
-  <si>
-    <t>Sequence number of dose</t>
-  </si>
-  <si>
     <t>INTRAVENOUS</t>
   </si>
   <si>
     <t xml:space="preserve">INTRAMUSCULAR </t>
+  </si>
+  <si>
+    <t>Dependent Variable (Original)</t>
+  </si>
+  <si>
+    <t>Planned Timepoint (Nominal)</t>
+  </si>
+  <si>
+    <t>Method of Test or Examination</t>
+  </si>
+  <si>
+    <t>Unit of Age</t>
+  </si>
+  <si>
+    <t>PK Flag (Y/N)</t>
+  </si>
+  <si>
+    <t>Drug Administration Start Date and Time</t>
+  </si>
+  <si>
+    <t>Drug Administration End Date and Time</t>
+  </si>
+  <si>
+    <t>Dose in a Convenient Way </t>
+  </si>
+  <si>
+    <t>Dose Unit (mg or mg/kg)</t>
+  </si>
+  <si>
+    <t>Duration of Dose</t>
+  </si>
+  <si>
+    <t>Sequence Number of Dose</t>
+  </si>
+  <si>
+    <t>Treatment Start Date and Time</t>
+  </si>
+  <si>
+    <t>Flag to Exclude Record(s)</t>
+  </si>
+  <si>
+    <t>Reason for Exclusion (N)</t>
+  </si>
+  <si>
+    <t>Treatment Received (N)</t>
+  </si>
+  <si>
+    <t>Analyte Name (N)</t>
+  </si>
+  <si>
+    <t>Dependent Variable (Imputed/Transformed)</t>
+  </si>
+  <si>
+    <t>NONMEM Compartment</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Unit of Age, Year</t>
+  </si>
+  <si>
+    <t>Sample Collection Date and Time</t>
+  </si>
+  <si>
+    <t>Treatment Received</t>
+  </si>
+  <si>
+    <t>Duration of Infusion (day)</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>fuzzy_match_method</t>
+  </si>
+  <si>
+    <t>jw</t>
+  </si>
+  <si>
+    <t>fuzzy_match_threshold</t>
+  </si>
+  <si>
+    <t>n_subject_showing_in_simulation</t>
+  </si>
+  <si>
+    <t>infusion_hrs_lst</t>
+  </si>
+  <si>
+    <t>c(0.5, 1, 2)</t>
+  </si>
+  <si>
+    <t>followup_period</t>
+  </si>
+  <si>
+    <t>simulation_delta</t>
+  </si>
+  <si>
+    <t>topN</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>NONMEM</t>
+  </si>
+  <si>
+    <t>IP_addresss</t>
+  </si>
+  <si>
+    <t>GGPLOT</t>
+  </si>
+  <si>
+    <t>COLOR</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>cyan</t>
+  </si>
+  <si>
+    <t>SIMULATION</t>
+  </si>
+  <si>
+    <t>RESP1</t>
+  </si>
+  <si>
+    <t>RESP2</t>
+  </si>
+  <si>
+    <t>RESP3</t>
+  </si>
+  <si>
+    <t>Actual Treatment (N)</t>
+  </si>
+  <si>
+    <t>EXTDOSE</t>
+  </si>
+  <si>
+    <t>Total Dose (mg)</t>
   </si>
 </sst>
 </file>
@@ -911,8 +983,8 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1291,20 +1363,8 @@
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1330,6 +1390,18 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1712,463 +1784,463 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.26953125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="12" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="10">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="10">
+        <v>2</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="10">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="10">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="10">
+        <v>2</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="10">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="10">
+        <v>2</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="10">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="10">
+        <v>3</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="10">
+        <v>3</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="10">
+        <v>3</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="10">
+        <v>3</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="10">
+        <v>3</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="10">
+        <v>3</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="D21" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="10">
+        <v>3</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="D22" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="10">
+        <v>3</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="10">
+        <v>3</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="E24" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="10">
+        <v>3</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
-        <v>2</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
-        <v>2</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
-        <v>2</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
-        <v>2</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
-        <v>2</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
-        <v>2</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
-        <v>2</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
-        <v>2</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
-        <v>2</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
-        <v>2</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
-        <v>3</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
-        <v>3</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
-        <v>3</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
-        <v>3</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
-        <v>3</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" t="s">
-        <v>175</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14">
-        <v>3</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" t="s">
-        <v>174</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14">
-        <v>3</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" t="s">
-        <v>176</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14">
-        <v>3</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" t="s">
-        <v>177</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14">
-        <v>3</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" t="s">
-        <v>178</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14">
-        <v>3</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" t="s">
-        <v>179</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>167</v>
+      <c r="E25" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2179,333 +2251,368 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="4.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.7265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>1</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>2</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>2</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>2</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>2</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
-        <v>1</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
-        <v>1</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <v>2</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
-        <v>2</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="E17" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <v>2</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
-        <v>2</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="D18" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <v>2</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
-        <v>2</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="E19" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>2</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
-        <v>2</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
-        <v>2</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
-        <v>2</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="15">
-        <v>2</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="15">
-        <v>2</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="E20" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2515,371 +2622,392 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.7265625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="9">
+        <v>2</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="E7" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="10">
+        <v>2</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="9">
+        <v>2</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="9">
+        <v>2</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="9">
+        <v>2</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="9">
+        <v>2</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="10">
+        <v>2</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="10">
+        <v>2</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D16" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="10">
+        <v>2</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="9">
+        <v>2</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="E18" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="9">
+        <v>2</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="D19" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="9">
+        <v>2</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>167</v>
-      </c>
+      <c r="D20" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E23" s="10"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2888,999 +3016,1032 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F1:J1048576"/>
+    <sheetView topLeftCell="A37" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="14"/>
+    <col min="6" max="16384" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>1</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E6" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>1</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>1</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>1</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>1</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>1</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>1</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
+        <v>1</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
+        <v>1</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
+        <v>1</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
+        <v>1</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
+        <v>1</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
+        <v>1</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
+        <v>1</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
+        <v>1</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
+        <v>1</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15">
+        <v>1</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15">
+        <v>1</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15">
+        <v>1</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="15">
+        <v>1</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="15">
+        <v>1</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="15">
+        <v>1</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="15">
+        <v>1</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="15">
+        <v>1</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="15">
+        <v>1</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="15">
+        <v>1</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="15">
+        <v>2</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="15">
+        <v>2</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="15">
+        <v>2</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="E35" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="15">
+        <v>2</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="15">
+        <v>2</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="15">
+        <v>2</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="15">
+        <v>2</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="15">
+        <v>2</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="15">
+        <v>2</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>1</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>1</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>1</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>1</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="D41" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>1</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="E41" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="15">
+        <v>2</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="15">
+        <v>2</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="15">
+        <v>2</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="15">
+        <v>2</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="15">
+        <v>2</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="15">
+        <v>2</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="14">
+        <v>2</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="15">
+        <v>2</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="15">
+        <v>2</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="14">
+        <v>2</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E51" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>1</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>1</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>1</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>1</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>1</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>1</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>1</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>1</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>1</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
-        <v>1</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="9" t="s">
+    </row>
+    <row r="52" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="15">
+        <v>2</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="15">
+        <v>2</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="15">
+        <v>2</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="15">
+        <v>3</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="15">
+        <v>3</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="15">
+        <v>3</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="15">
+        <v>3</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
-        <v>1</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
-        <v>1</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
-        <v>1</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
-        <v>1</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
-        <v>1</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
-        <v>1</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
-        <v>1</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
-        <v>2</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8">
-        <v>2</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8">
-        <v>2</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8">
-        <v>2</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8">
-        <v>2</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8">
-        <v>2</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8">
-        <v>2</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8">
-        <v>2</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
-        <v>2</v>
-      </c>
-      <c r="B41" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="8">
-        <v>2</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="8">
-        <v>2</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8">
-        <v>2</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="8">
-        <v>2</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="8">
-        <v>2</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="8">
-        <v>2</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="8">
-        <v>2</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="8">
-        <v>2</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="8">
-        <v>2</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="8">
-        <v>2</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="8">
-        <v>2</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="8">
-        <v>3</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="8">
-        <v>3</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="8">
-        <v>3</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="8">
-        <v>3</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="8"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="8"/>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="8"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="8"/>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="8"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="8"/>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="8"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="8"/>
+      <c r="E58" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="15"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="15"/>
+    </row>
+    <row r="60" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="15"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="15"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="15"/>
+    </row>
+    <row r="62" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="15"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3890,279 +4051,621 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBB57A3-C076-48DB-A987-69C15D972AE4}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="C1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>234</v>
       </c>
       <c r="B18" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="C18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" t="s">
         <v>65</v>
       </c>
-      <c r="B20" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B21" t="s">
         <v>65</v>
       </c>
-      <c r="B21" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>234</v>
+      </c>
+      <c r="B23" t="s">
         <v>64</v>
       </c>
-      <c r="B23" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B24" t="s">
         <v>64</v>
       </c>
-      <c r="B24" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" t="s">
         <v>64</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>234</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>234</v>
+      </c>
+      <c r="B28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>234</v>
+      </c>
+      <c r="B29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>234</v>
+      </c>
+      <c r="B30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>234</v>
+      </c>
+      <c r="B31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>234</v>
+      </c>
+      <c r="B32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>234</v>
+      </c>
+      <c r="B33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>234</v>
+      </c>
+      <c r="B34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>234</v>
+      </c>
+      <c r="B35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>234</v>
+      </c>
+      <c r="B36" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>234</v>
+      </c>
+      <c r="B37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>234</v>
+      </c>
+      <c r="B38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>234</v>
+      </c>
+      <c r="B40" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>234</v>
+      </c>
+      <c r="B42" t="s">
+        <v>185</v>
+      </c>
+      <c r="C42" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>234</v>
+      </c>
+      <c r="B43" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>234</v>
+      </c>
+      <c r="B45" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>194</v>
-      </c>
-      <c r="B28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>194</v>
-      </c>
-      <c r="B29" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>194</v>
-      </c>
-      <c r="B30" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>194</v>
-      </c>
-      <c r="B31" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>194</v>
-      </c>
-      <c r="B32" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>194</v>
-      </c>
-      <c r="B33" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>194</v>
-      </c>
-      <c r="B34" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>194</v>
-      </c>
-      <c r="B35" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>209</v>
-      </c>
-      <c r="B37" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>209</v>
-      </c>
-      <c r="B38" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>209</v>
-      </c>
-      <c r="B39" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>209</v>
-      </c>
-      <c r="B40" t="s">
-        <v>221</v>
+      <c r="C45" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>234</v>
+      </c>
+      <c r="B46" t="s">
+        <v>238</v>
+      </c>
+      <c r="C46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>234</v>
+      </c>
+      <c r="B47" t="s">
+        <v>244</v>
+      </c>
+      <c r="C47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>254</v>
+      </c>
+      <c r="B49" t="s">
+        <v>239</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>254</v>
+      </c>
+      <c r="B50" t="s">
+        <v>240</v>
+      </c>
+      <c r="C50" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>254</v>
+      </c>
+      <c r="B51" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>254</v>
+      </c>
+      <c r="B52" t="s">
+        <v>243</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>246</v>
+      </c>
+      <c r="B54" t="s">
+        <v>247</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>246</v>
+      </c>
+      <c r="B55" t="s">
+        <v>247</v>
+      </c>
+      <c r="C55">
+        <v>122142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>246</v>
+      </c>
+      <c r="B56" t="s">
+        <v>247</v>
+      </c>
+      <c r="C56">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>246</v>
+      </c>
+      <c r="B57" t="s">
+        <v>247</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>248</v>
+      </c>
+      <c r="B59" t="s">
+        <v>249</v>
+      </c>
+      <c r="C59" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>248</v>
+      </c>
+      <c r="B60" t="s">
+        <v>249</v>
+      </c>
+      <c r="C60" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>248</v>
+      </c>
+      <c r="B61" t="s">
+        <v>249</v>
+      </c>
+      <c r="C61" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>248</v>
+      </c>
+      <c r="B62" t="s">
+        <v>249</v>
+      </c>
+      <c r="C62" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -4178,16 +4681,16 @@
       <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
@@ -4207,7 +4710,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4227,7 +4730,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4247,7 +4750,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4267,7 +4770,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -4287,7 +4790,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -4307,7 +4810,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -4327,7 +4830,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -4347,7 +4850,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -4367,7 +4870,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -4387,7 +4890,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -4407,7 +4910,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -4427,7 +4930,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -4447,7 +4950,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -4467,7 +4970,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -4487,7 +4990,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -4507,7 +5010,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4527,7 +5030,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -4547,7 +5050,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4567,7 +5070,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -4587,7 +5090,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -4604,7 +5107,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -4621,7 +5124,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -4638,7 +5141,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -4655,7 +5158,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -4672,7 +5175,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -4689,7 +5192,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -4706,7 +5209,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -4723,7 +5226,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -4740,7 +5243,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -4757,7 +5260,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -4774,7 +5277,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -4791,7 +5294,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -4808,7 +5311,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -4825,7 +5328,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -4842,7 +5345,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -4859,7 +5362,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -4876,7 +5379,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -4896,7 +5399,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -4916,7 +5419,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -4936,7 +5439,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -4956,7 +5459,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -4976,7 +5479,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -4996,7 +5499,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -5013,7 +5516,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -5030,7 +5533,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -5050,7 +5553,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -5070,7 +5573,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>30</v>
       </c>
@@ -5087,7 +5590,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>30</v>
       </c>
@@ -5104,7 +5607,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>32</v>
       </c>
@@ -5121,7 +5624,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>32</v>
       </c>
@@ -5138,7 +5641,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>32</v>
       </c>
@@ -5155,7 +5658,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>33</v>
       </c>
@@ -5172,7 +5675,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -5189,7 +5692,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -5206,7 +5709,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>39</v>
       </c>
@@ -5223,7 +5726,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>46</v>
       </c>
@@ -5240,7 +5743,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>47</v>
       </c>
@@ -5257,7 +5760,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -5274,7 +5777,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -5291,7 +5794,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -5308,7 +5811,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -5325,7 +5828,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -5342,7 +5845,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -5359,7 +5862,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -5376,7 +5879,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -5393,7 +5896,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -5410,7 +5913,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -5427,7 +5930,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>48</v>
       </c>
@@ -5444,7 +5947,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>49</v>
       </c>
@@ -5461,7 +5964,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>52</v>
       </c>
@@ -5478,7 +5981,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>52</v>
       </c>
@@ -5495,7 +5998,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>53</v>
       </c>
@@ -5512,7 +6015,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>53</v>
       </c>
@@ -5529,7 +6032,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>27</v>
       </c>
@@ -5546,7 +6049,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>21</v>
       </c>
@@ -5563,7 +6066,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>24</v>
       </c>
@@ -5580,7 +6083,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>25</v>
       </c>
@@ -5597,7 +6100,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>26</v>
       </c>

--- a/lib/pkmeta.xlsx
+++ b/lib/pkmeta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feng.yang\Documents\handbook\lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feng.yang\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23B52DF-BFB9-43F9-9FA4-1102E1A9022F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8395F71C-C436-4268-ABB5-7FAE31D864AC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="adsl" sheetId="2" r:id="rId1"/>
@@ -1788,18 +1788,18 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.26953125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>140</v>
       </c>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>2</v>
       </c>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>2</v>
       </c>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>2</v>
       </c>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>2</v>
       </c>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>2</v>
       </c>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>2</v>
       </c>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>2</v>
       </c>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>2</v>
       </c>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>2</v>
       </c>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>2</v>
       </c>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>3</v>
       </c>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>3</v>
       </c>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>3</v>
       </c>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>3</v>
       </c>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>3</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>3</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>3</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>3</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>3</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>3</v>
       </c>
@@ -2253,23 +2253,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C1:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7265625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="3"/>
+    <col min="1" max="1" width="4.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>140</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>1</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>1</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>2</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2</v>
       </c>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>2</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>2</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>2</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>2</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>2</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>2</v>
       </c>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>2</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>2</v>
       </c>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>2</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>2</v>
       </c>
@@ -2624,22 +2624,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.7265625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="8"/>
+    <col min="3" max="3" width="14.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>140</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -2725,9 +2725,9 @@
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>105</v>
@@ -2742,24 +2742,24 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>105</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>2</v>
       </c>
@@ -2767,176 +2767,176 @@
         <v>105</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="9">
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
         <v>2</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>105</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>2</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>2</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>2</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="10">
-        <v>2</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="E13" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>2</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E14" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="9">
-        <v>2</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>2</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="9">
-        <v>2</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="E15" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>2</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D16" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E16" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="9">
-        <v>2</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>2</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E17" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="9">
-        <v>2</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="10">
-        <v>2</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="10">
-        <v>2</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="10">
-        <v>2</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>2</v>
       </c>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>2</v>
       </c>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>2</v>
       </c>
@@ -2989,8 +2989,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23" s="10"/>
       <c r="G23" s="5"/>
       <c r="H23" s="2"/>
@@ -3022,17 +3022,17 @@
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="14"/>
-    <col min="6" max="16384" width="8.7265625" style="8"/>
+    <col min="5" max="5" width="8.7109375" style="14"/>
+    <col min="6" max="16384" width="8.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>140</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>1</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>1</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>1</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>1</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>1</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>1</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>1</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>1</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>1</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>1</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>1</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>1</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>1</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>1</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>1</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>1</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>1</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>1</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>1</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>1</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>1</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>1</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>1</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>1</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>1</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>1</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>1</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>1</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>1</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>2</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>2</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>2</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>2</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>2</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>2</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>2</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>2</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>2</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>2</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>2</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>2</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>2</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>2</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>2</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>2</v>
       </c>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
         <v>2</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
         <v>2</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>2</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
         <v>2</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
         <v>2</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
         <v>2</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
         <v>3</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
         <v>3</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
         <v>3</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15">
         <v>3</v>
       </c>
@@ -4019,25 +4019,25 @@
         <v>152</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
       <c r="E59" s="15"/>
     </row>
-    <row r="60" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
       <c r="E60" s="15"/>
     </row>
-    <row r="61" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
       <c r="E61" s="15"/>
     </row>
-    <row r="62" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -4057,14 +4057,14 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>198</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>234</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>234</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>234</v>
       </c>
@@ -4111,12 +4111,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>234</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -4138,12 +4138,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>234</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>234</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>234</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>234</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>234</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>234</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>234</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>234</v>
       </c>
@@ -4231,12 +4231,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>234</v>
       </c>
@@ -4247,12 +4247,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>234</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>234</v>
       </c>
@@ -4274,12 +4274,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>234</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>234</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>234</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>234</v>
       </c>
@@ -4323,12 +4323,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>234</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>234</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>234</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>234</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>234</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>234</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>234</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>234</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>234</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>234</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>234</v>
       </c>
@@ -4449,12 +4449,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>234</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>234</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>234</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>234</v>
       </c>
@@ -4498,12 +4498,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>234</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>234</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>234</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>254</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>254</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>254</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>254</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>246</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>246</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>122142</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>246</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>246</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>248</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>248</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>248</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>248</v>
       </c>
@@ -4681,16 +4681,16 @@
       <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>30</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>30</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>32</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>32</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>32</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>33</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>39</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>46</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>47</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>48</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>49</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>52</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>52</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>53</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>53</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>27</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>21</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>24</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>25</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>26</v>
       </c>
